--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I449"/>
+  <dimension ref="A1:I450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16095,6 +16095,41 @@
         <v>3531300</v>
       </c>
     </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F450" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I450" t="n">
+        <v>1028300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I450"/>
+  <dimension ref="A1:I451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16130,6 +16130,41 @@
         <v>1028300</v>
       </c>
     </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F451" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I451" t="n">
+        <v>2354300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I451"/>
+  <dimension ref="A1:I452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16165,6 +16165,41 @@
         <v>2354300</v>
       </c>
     </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I452" t="n">
+        <v>7790800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I452"/>
+  <dimension ref="A1:I453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16200,6 +16200,41 @@
         <v>7790800</v>
       </c>
     </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E453" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I453" t="n">
+        <v>4304500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I453"/>
+  <dimension ref="A1:I454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16235,6 +16235,41 @@
         <v>4304500</v>
       </c>
     </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E454" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F454" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I454" t="n">
+        <v>13904800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I454"/>
+  <dimension ref="A1:I455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16270,6 +16270,41 @@
         <v>13904800</v>
       </c>
     </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E455" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F455" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I455" t="n">
+        <v>3892600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I455"/>
+  <dimension ref="A1:I456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16305,6 +16305,41 @@
         <v>3892600</v>
       </c>
     </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E456" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F456" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I456" t="n">
+        <v>11275300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I456"/>
+  <dimension ref="A1:I457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16340,6 +16340,41 @@
         <v>11275300</v>
       </c>
     </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E457" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I457" t="n">
+        <v>5931400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I457"/>
+  <dimension ref="A1:I458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16375,6 +16375,41 @@
         <v>5931400</v>
       </c>
     </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E458" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F458" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I458" t="n">
+        <v>4947500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I458"/>
+  <dimension ref="A1:I459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16410,6 +16410,41 @@
         <v>4947500</v>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F459" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I459" t="n">
+        <v>9604000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I459"/>
+  <dimension ref="A1:I460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16445,6 +16445,41 @@
         <v>9604000</v>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E460" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F460" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I460" t="n">
+        <v>6247400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I460"/>
+  <dimension ref="A1:I461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16480,6 +16480,41 @@
         <v>6247400</v>
       </c>
     </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E461" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I461" t="n">
+        <v>5148300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I461"/>
+  <dimension ref="A1:I463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16515,6 +16515,76 @@
         <v>5148300</v>
       </c>
     </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I462" t="n">
+        <v>2792800</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E463" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F463" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I463" t="n">
+        <v>12010100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I463"/>
+  <dimension ref="A1:I465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16585,6 +16585,76 @@
         <v>12010100</v>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E464" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I464" t="n">
+        <v>9345100</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E465" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I465" t="n">
+        <v>6543300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I465"/>
+  <dimension ref="A1:I466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16655,6 +16655,41 @@
         <v>6543300</v>
       </c>
     </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I466" t="n">
+        <v>6774900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I466"/>
+  <dimension ref="A1:I467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16690,6 +16690,41 @@
         <v>6774900</v>
       </c>
     </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E467" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I467" t="n">
+        <v>8231500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I467"/>
+  <dimension ref="A1:I468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16725,6 +16725,41 @@
         <v>8231500</v>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E468" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I468" t="n">
+        <v>5577800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I468"/>
+  <dimension ref="A1:I469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16760,6 +16760,41 @@
         <v>5577800</v>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E469" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F469" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G469" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I469" t="n">
+        <v>12723000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I469"/>
+  <dimension ref="A1:I471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16795,6 +16795,76 @@
         <v>12723000</v>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E470" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F470" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G470" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I470" t="n">
+        <v>14201400</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E471" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F471" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I471" t="n">
+        <v>11787300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I471"/>
+  <dimension ref="A1:I472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16865,6 +16865,41 @@
         <v>11787300</v>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F472" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I472" t="n">
+        <v>4823100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I472"/>
+  <dimension ref="A1:I473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16900,6 +16900,41 @@
         <v>4823100</v>
       </c>
     </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E473" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F473" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G473" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I473" t="n">
+        <v>20224600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I473"/>
+  <dimension ref="A1:I482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14382,11 +14382,11 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14400,28 +14400,28 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="F401" t="n">
-        <v>0.48</v>
+        <v>0.475</v>
       </c>
       <c r="G401" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="H401" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="I401" t="n">
-        <v>2124600</v>
+        <v>19092500</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14435,28 +14435,28 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>0.465</v>
+        <v>0.475</v>
       </c>
       <c r="F402" t="n">
-        <v>0.485</v>
+        <v>0.5</v>
       </c>
       <c r="G402" t="n">
         <v>0.465</v>
       </c>
       <c r="H402" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="I402" t="n">
-        <v>3803500</v>
+        <v>10855300</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14470,28 +14470,28 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>0.48</v>
+        <v>0.505</v>
       </c>
       <c r="F403" t="n">
-        <v>0.5</v>
+        <v>0.515</v>
       </c>
       <c r="G403" t="n">
-        <v>0.475</v>
+        <v>0.485</v>
       </c>
       <c r="H403" t="n">
-        <v>0.485</v>
+        <v>0.49</v>
       </c>
       <c r="I403" t="n">
-        <v>4698700</v>
+        <v>6985400</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14505,28 +14505,28 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>0.48</v>
+        <v>0.495</v>
       </c>
       <c r="F404" t="n">
-        <v>0.49</v>
+        <v>0.495</v>
       </c>
       <c r="G404" t="n">
-        <v>0.475</v>
+        <v>0.46</v>
       </c>
       <c r="H404" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="I404" t="n">
-        <v>1888300</v>
+        <v>9574100</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14540,28 +14540,28 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="F405" t="n">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="G405" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="H405" t="n">
-        <v>0.485</v>
+        <v>0.465</v>
       </c>
       <c r="I405" t="n">
-        <v>7695400</v>
+        <v>2686800</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14575,28 +14575,28 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>0.485</v>
+        <v>0.465</v>
       </c>
       <c r="F406" t="n">
-        <v>0.485</v>
+        <v>0.465</v>
       </c>
       <c r="G406" t="n">
-        <v>0.465</v>
+        <v>0.44</v>
       </c>
       <c r="H406" t="n">
-        <v>0.47</v>
+        <v>0.455</v>
       </c>
       <c r="I406" t="n">
-        <v>3991000</v>
+        <v>4517900</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14610,28 +14610,28 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>0.475</v>
+        <v>0.455</v>
       </c>
       <c r="F407" t="n">
         <v>0.48</v>
       </c>
       <c r="G407" t="n">
-        <v>0.465</v>
+        <v>0.45</v>
       </c>
       <c r="H407" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="I407" t="n">
-        <v>2165900</v>
+        <v>5896400</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14645,28 +14645,28 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="F408" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H408" t="n">
         <v>0.485</v>
       </c>
-      <c r="G408" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="H408" t="n">
-        <v>0.465</v>
-      </c>
       <c r="I408" t="n">
-        <v>3679700</v>
+        <v>6808100</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14680,28 +14680,28 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>0.46</v>
+        <v>0.485</v>
       </c>
       <c r="F409" t="n">
-        <v>0.465</v>
+        <v>0.495</v>
       </c>
       <c r="G409" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="H409" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="I409" t="n">
-        <v>887200</v>
+        <v>2838200</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14715,7 +14715,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="F410" t="n">
         <v>0.48</v>
@@ -14724,19 +14724,19 @@
         <v>0.46</v>
       </c>
       <c r="H410" t="n">
-        <v>0.475</v>
+        <v>0.46</v>
       </c>
       <c r="I410" t="n">
-        <v>4499100</v>
+        <v>2124600</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14750,28 +14750,28 @@
         </is>
       </c>
       <c r="E411" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F411" t="n">
         <v>0.485</v>
       </c>
-      <c r="F411" t="n">
-        <v>0.535</v>
-      </c>
       <c r="G411" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H411" t="n">
         <v>0.48</v>
       </c>
-      <c r="H411" t="n">
-        <v>0.525</v>
-      </c>
       <c r="I411" t="n">
-        <v>27549400</v>
+        <v>3803500</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14785,28 +14785,28 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="F412" t="n">
-        <v>0.545</v>
+        <v>0.5</v>
       </c>
       <c r="G412" t="n">
-        <v>0.525</v>
+        <v>0.475</v>
       </c>
       <c r="H412" t="n">
-        <v>0.535</v>
+        <v>0.485</v>
       </c>
       <c r="I412" t="n">
-        <v>14768300</v>
+        <v>4698700</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -14820,28 +14820,28 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="F413" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="G413" t="n">
-        <v>0.52</v>
+        <v>0.475</v>
       </c>
       <c r="H413" t="n">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
       <c r="I413" t="n">
-        <v>12686000</v>
+        <v>1888300</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14855,28 +14855,28 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="F414" t="n">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="G414" t="n">
-        <v>0.535</v>
+        <v>0.48</v>
       </c>
       <c r="H414" t="n">
-        <v>0.57</v>
+        <v>0.485</v>
       </c>
       <c r="I414" t="n">
-        <v>29249800</v>
+        <v>7695400</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14890,28 +14890,28 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.485</v>
       </c>
       <c r="F415" t="n">
-        <v>0.58</v>
+        <v>0.485</v>
       </c>
       <c r="G415" t="n">
-        <v>0.545</v>
+        <v>0.465</v>
       </c>
       <c r="H415" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="I415" t="n">
-        <v>5982600</v>
+        <v>3991000</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14925,28 +14925,28 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>0.57</v>
+        <v>0.475</v>
       </c>
       <c r="F416" t="n">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
       <c r="G416" t="n">
-        <v>0.555</v>
+        <v>0.465</v>
       </c>
       <c r="H416" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="I416" t="n">
-        <v>3137600</v>
+        <v>2165900</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14960,28 +14960,28 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>0.575</v>
+        <v>0.47</v>
       </c>
       <c r="F417" t="n">
-        <v>0.6</v>
+        <v>0.485</v>
       </c>
       <c r="G417" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.455</v>
       </c>
       <c r="H417" t="n">
-        <v>0.595</v>
+        <v>0.465</v>
       </c>
       <c r="I417" t="n">
-        <v>14657900</v>
+        <v>3679700</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14995,28 +14995,28 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>0.595</v>
+        <v>0.46</v>
       </c>
       <c r="F418" t="n">
-        <v>0.62</v>
+        <v>0.465</v>
       </c>
       <c r="G418" t="n">
-        <v>0.595</v>
+        <v>0.46</v>
       </c>
       <c r="H418" t="n">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="I418" t="n">
-        <v>15332800</v>
+        <v>887200</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -15030,28 +15030,28 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="F419" t="n">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="G419" t="n">
-        <v>0.61</v>
+        <v>0.46</v>
       </c>
       <c r="H419" t="n">
-        <v>0.62</v>
+        <v>0.475</v>
       </c>
       <c r="I419" t="n">
-        <v>7486000</v>
+        <v>4499100</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -15065,28 +15065,28 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>0.62</v>
+        <v>0.485</v>
       </c>
       <c r="F420" t="n">
-        <v>0.63</v>
+        <v>0.535</v>
       </c>
       <c r="G420" t="n">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="H420" t="n">
-        <v>0.62</v>
+        <v>0.525</v>
       </c>
       <c r="I420" t="n">
-        <v>6246200</v>
+        <v>27549400</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -15100,28 +15100,28 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="F421" t="n">
-        <v>0.63</v>
+        <v>0.545</v>
       </c>
       <c r="G421" t="n">
-        <v>0.61</v>
+        <v>0.525</v>
       </c>
       <c r="H421" t="n">
-        <v>0.61</v>
+        <v>0.535</v>
       </c>
       <c r="I421" t="n">
-        <v>4641800</v>
+        <v>14768300</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -15135,28 +15135,28 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>0.605</v>
+        <v>0.54</v>
       </c>
       <c r="F422" t="n">
-        <v>0.625</v>
+        <v>0.58</v>
       </c>
       <c r="G422" t="n">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="H422" t="n">
-        <v>0.615</v>
+        <v>0.58</v>
       </c>
       <c r="I422" t="n">
-        <v>8875200</v>
+        <v>12686000</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -15170,28 +15170,28 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="F423" t="n">
-        <v>0.645</v>
+        <v>0.61</v>
       </c>
       <c r="G423" t="n">
-        <v>0.605</v>
+        <v>0.535</v>
       </c>
       <c r="H423" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="I423" t="n">
-        <v>14557000</v>
+        <v>29249800</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -15205,28 +15205,28 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.64</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F424" t="n">
-        <v>0.655</v>
+        <v>0.58</v>
       </c>
       <c r="G424" t="n">
-        <v>0.63</v>
+        <v>0.545</v>
       </c>
       <c r="H424" t="n">
-        <v>0.64</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="I424" t="n">
-        <v>11139400</v>
+        <v>5982600</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -15240,28 +15240,28 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="F425" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="G425" t="n">
-        <v>0.61</v>
+        <v>0.555</v>
       </c>
       <c r="H425" t="n">
-        <v>0.62</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="I425" t="n">
-        <v>5707000</v>
+        <v>3137600</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -15275,28 +15275,28 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>0.62</v>
+        <v>0.575</v>
       </c>
       <c r="F426" t="n">
-        <v>0.635</v>
+        <v>0.6</v>
       </c>
       <c r="G426" t="n">
-        <v>0.585</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H426" t="n">
-        <v>0.585</v>
+        <v>0.595</v>
       </c>
       <c r="I426" t="n">
-        <v>9554300</v>
+        <v>14657900</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -15310,28 +15310,28 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>0.575</v>
+        <v>0.595</v>
       </c>
       <c r="F427" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G427" t="n">
         <v>0.595</v>
       </c>
-      <c r="G427" t="n">
-        <v>0.54</v>
-      </c>
       <c r="H427" t="n">
-        <v>0.595</v>
+        <v>0.62</v>
       </c>
       <c r="I427" t="n">
-        <v>14884900</v>
+        <v>15332800</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -15345,28 +15345,28 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="F428" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="G428" t="n">
         <v>0.61</v>
       </c>
       <c r="H428" t="n">
-        <v>0.615</v>
+        <v>0.62</v>
       </c>
       <c r="I428" t="n">
-        <v>7013800</v>
+        <v>7486000</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -15383,25 +15383,25 @@
         <v>0.62</v>
       </c>
       <c r="F429" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H429" t="n">
         <v>0.62</v>
       </c>
-      <c r="G429" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="H429" t="n">
-        <v>0.595</v>
-      </c>
       <c r="I429" t="n">
-        <v>3221200</v>
+        <v>6246200</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -15415,28 +15415,28 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.595</v>
+        <v>0.62</v>
       </c>
       <c r="F430" t="n">
-        <v>0.625</v>
+        <v>0.63</v>
       </c>
       <c r="G430" t="n">
-        <v>0.585</v>
+        <v>0.61</v>
       </c>
       <c r="H430" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="I430" t="n">
-        <v>4705800</v>
+        <v>4641800</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15450,28 +15450,28 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0.625</v>
+        <v>0.605</v>
       </c>
       <c r="F431" t="n">
         <v>0.625</v>
       </c>
       <c r="G431" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H431" t="n">
-        <v>0.625</v>
+        <v>0.615</v>
       </c>
       <c r="I431" t="n">
-        <v>2328100</v>
+        <v>8875200</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15485,28 +15485,28 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="F432" t="n">
-        <v>0.63</v>
+        <v>0.645</v>
       </c>
       <c r="G432" t="n">
-        <v>0.61</v>
+        <v>0.605</v>
       </c>
       <c r="H432" t="n">
-        <v>0.615</v>
+        <v>0.64</v>
       </c>
       <c r="I432" t="n">
-        <v>1565400</v>
+        <v>14557000</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15520,28 +15520,28 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>0.615</v>
+        <v>0.64</v>
       </c>
       <c r="F433" t="n">
-        <v>0.635</v>
+        <v>0.655</v>
       </c>
       <c r="G433" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="H433" t="n">
-        <v>0.615</v>
+        <v>0.64</v>
       </c>
       <c r="I433" t="n">
-        <v>3065700</v>
+        <v>11139400</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15555,28 +15555,28 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="F434" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="G434" t="n">
-        <v>0.615</v>
+        <v>0.61</v>
       </c>
       <c r="H434" t="n">
         <v>0.62</v>
       </c>
       <c r="I434" t="n">
-        <v>2871100</v>
+        <v>5707000</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15590,28 +15590,28 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="F435" t="n">
-        <v>0.675</v>
+        <v>0.635</v>
       </c>
       <c r="G435" t="n">
-        <v>0.62</v>
+        <v>0.585</v>
       </c>
       <c r="H435" t="n">
-        <v>0.675</v>
+        <v>0.585</v>
       </c>
       <c r="I435" t="n">
-        <v>13298800</v>
+        <v>9554300</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15625,28 +15625,28 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.575</v>
       </c>
       <c r="F436" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.595</v>
       </c>
       <c r="G436" t="n">
-        <v>0.655</v>
+        <v>0.54</v>
       </c>
       <c r="H436" t="n">
-        <v>0.665</v>
+        <v>0.595</v>
       </c>
       <c r="I436" t="n">
-        <v>4092500</v>
+        <v>14884900</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15660,28 +15660,28 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="F437" t="n">
-        <v>0.675</v>
+        <v>0.62</v>
       </c>
       <c r="G437" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="H437" t="n">
-        <v>0.665</v>
+        <v>0.615</v>
       </c>
       <c r="I437" t="n">
-        <v>2512800</v>
+        <v>7013800</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15695,28 +15695,28 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="F438" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="G438" t="n">
-        <v>0.645</v>
+        <v>0.595</v>
       </c>
       <c r="H438" t="n">
-        <v>0.645</v>
+        <v>0.595</v>
       </c>
       <c r="I438" t="n">
-        <v>2094800</v>
+        <v>3221200</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15730,28 +15730,28 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>0.645</v>
+        <v>0.595</v>
       </c>
       <c r="F439" t="n">
-        <v>0.66</v>
+        <v>0.625</v>
       </c>
       <c r="G439" t="n">
-        <v>0.64</v>
+        <v>0.585</v>
       </c>
       <c r="H439" t="n">
-        <v>0.645</v>
+        <v>0.62</v>
       </c>
       <c r="I439" t="n">
-        <v>1190600</v>
+        <v>4705800</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15765,28 +15765,28 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>0.63</v>
+        <v>0.625</v>
       </c>
       <c r="F440" t="n">
-        <v>0.63</v>
+        <v>0.625</v>
       </c>
       <c r="G440" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="H440" t="n">
-        <v>0.615</v>
+        <v>0.625</v>
       </c>
       <c r="I440" t="n">
-        <v>3377200</v>
+        <v>2328100</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15800,28 +15800,28 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>0.62</v>
+        <v>0.625</v>
       </c>
       <c r="F441" t="n">
-        <v>0.655</v>
+        <v>0.63</v>
       </c>
       <c r="G441" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="H441" t="n">
-        <v>0.645</v>
+        <v>0.615</v>
       </c>
       <c r="I441" t="n">
-        <v>2720500</v>
+        <v>1565400</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15835,28 +15835,28 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>0.66</v>
+        <v>0.615</v>
       </c>
       <c r="F442" t="n">
-        <v>0.66</v>
+        <v>0.635</v>
       </c>
       <c r="G442" t="n">
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="H442" t="n">
-        <v>0.625</v>
+        <v>0.615</v>
       </c>
       <c r="I442" t="n">
-        <v>2772400</v>
+        <v>3065700</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15873,25 +15873,25 @@
         <v>0.62</v>
       </c>
       <c r="F443" t="n">
-        <v>0.625</v>
+        <v>0.63</v>
       </c>
       <c r="G443" t="n">
-        <v>0.59</v>
+        <v>0.615</v>
       </c>
       <c r="H443" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="I443" t="n">
-        <v>5441900</v>
+        <v>2871100</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -15905,28 +15905,28 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="F444" t="n">
-        <v>0.6</v>
+        <v>0.675</v>
       </c>
       <c r="G444" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="H444" t="n">
-        <v>0.595</v>
+        <v>0.675</v>
       </c>
       <c r="I444" t="n">
-        <v>7248600</v>
+        <v>13298800</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15940,28 +15940,28 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>0.6</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F445" t="n">
-        <v>0.61</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G445" t="n">
-        <v>0.595</v>
+        <v>0.655</v>
       </c>
       <c r="H445" t="n">
-        <v>0.6</v>
+        <v>0.665</v>
       </c>
       <c r="I445" t="n">
-        <v>2839200</v>
+        <v>4092500</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15975,28 +15975,28 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="F446" t="n">
-        <v>0.62</v>
+        <v>0.675</v>
       </c>
       <c r="G446" t="n">
-        <v>0.595</v>
+        <v>0.65</v>
       </c>
       <c r="H446" t="n">
-        <v>0.61</v>
+        <v>0.665</v>
       </c>
       <c r="I446" t="n">
-        <v>2634600</v>
+        <v>2512800</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -16010,28 +16010,28 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="F447" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="G447" t="n">
-        <v>0.605</v>
+        <v>0.645</v>
       </c>
       <c r="H447" t="n">
-        <v>0.64</v>
+        <v>0.645</v>
       </c>
       <c r="I447" t="n">
-        <v>4597500</v>
+        <v>2094800</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -16048,25 +16048,25 @@
         <v>0.645</v>
       </c>
       <c r="F448" t="n">
-        <v>0.655</v>
+        <v>0.66</v>
       </c>
       <c r="G448" t="n">
-        <v>0.625</v>
+        <v>0.64</v>
       </c>
       <c r="H448" t="n">
-        <v>0.63</v>
+        <v>0.645</v>
       </c>
       <c r="I448" t="n">
-        <v>3763500</v>
+        <v>1190600</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -16083,25 +16083,25 @@
         <v>0.63</v>
       </c>
       <c r="F449" t="n">
-        <v>0.645</v>
+        <v>0.63</v>
       </c>
       <c r="G449" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H449" t="n">
-        <v>0.62</v>
+        <v>0.615</v>
       </c>
       <c r="I449" t="n">
-        <v>3531300</v>
+        <v>3377200</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -16118,25 +16118,25 @@
         <v>0.62</v>
       </c>
       <c r="F450" t="n">
-        <v>0.635</v>
+        <v>0.655</v>
       </c>
       <c r="G450" t="n">
-        <v>0.615</v>
+        <v>0.62</v>
       </c>
       <c r="H450" t="n">
-        <v>0.63</v>
+        <v>0.645</v>
       </c>
       <c r="I450" t="n">
-        <v>1028300</v>
+        <v>2720500</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -16150,10 +16150,10 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="F451" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="G451" t="n">
         <v>0.625</v>
@@ -16162,16 +16162,16 @@
         <v>0.625</v>
       </c>
       <c r="I451" t="n">
-        <v>2354300</v>
+        <v>2772400</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -16185,28 +16185,28 @@
         </is>
       </c>
       <c r="E452" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F452" t="n">
         <v>0.625</v>
       </c>
-      <c r="F452" t="n">
-        <v>0.67</v>
-      </c>
       <c r="G452" t="n">
-        <v>0.625</v>
+        <v>0.59</v>
       </c>
       <c r="H452" t="n">
-        <v>0.665</v>
+        <v>0.59</v>
       </c>
       <c r="I452" t="n">
-        <v>7790800</v>
+        <v>5441900</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -16220,28 +16220,28 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>0.67</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F453" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="G453" t="n">
-        <v>0.665</v>
+        <v>0.54</v>
       </c>
       <c r="H453" t="n">
-        <v>0.67</v>
+        <v>0.595</v>
       </c>
       <c r="I453" t="n">
-        <v>4304500</v>
+        <v>7248600</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -16255,28 +16255,28 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>0.675</v>
+        <v>0.6</v>
       </c>
       <c r="F454" t="n">
-        <v>0.74</v>
+        <v>0.61</v>
       </c>
       <c r="G454" t="n">
-        <v>0.675</v>
+        <v>0.595</v>
       </c>
       <c r="H454" t="n">
-        <v>0.735</v>
+        <v>0.6</v>
       </c>
       <c r="I454" t="n">
-        <v>13904800</v>
+        <v>2839200</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -16290,28 +16290,28 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>0.74</v>
+        <v>0.61</v>
       </c>
       <c r="F455" t="n">
-        <v>0.745</v>
+        <v>0.62</v>
       </c>
       <c r="G455" t="n">
-        <v>0.71</v>
+        <v>0.595</v>
       </c>
       <c r="H455" t="n">
-        <v>0.715</v>
+        <v>0.61</v>
       </c>
       <c r="I455" t="n">
-        <v>3892600</v>
+        <v>2634600</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -16325,28 +16325,28 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="F456" t="n">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="G456" t="n">
-        <v>0.71</v>
+        <v>0.605</v>
       </c>
       <c r="H456" t="n">
-        <v>0.775</v>
+        <v>0.64</v>
       </c>
       <c r="I456" t="n">
-        <v>11275300</v>
+        <v>4597500</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -16360,28 +16360,28 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>0.775</v>
+        <v>0.645</v>
       </c>
       <c r="F457" t="n">
-        <v>0.795</v>
+        <v>0.655</v>
       </c>
       <c r="G457" t="n">
-        <v>0.755</v>
+        <v>0.625</v>
       </c>
       <c r="H457" t="n">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="I457" t="n">
-        <v>5931400</v>
+        <v>3763500</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -16395,28 +16395,28 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>0.77</v>
+        <v>0.63</v>
       </c>
       <c r="F458" t="n">
-        <v>0.79</v>
+        <v>0.645</v>
       </c>
       <c r="G458" t="n">
-        <v>0.745</v>
+        <v>0.61</v>
       </c>
       <c r="H458" t="n">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="I458" t="n">
-        <v>4947500</v>
+        <v>3531300</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -16430,28 +16430,28 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>0.705</v>
+        <v>0.62</v>
       </c>
       <c r="F459" t="n">
-        <v>0.74</v>
+        <v>0.635</v>
       </c>
       <c r="G459" t="n">
-        <v>0.68</v>
+        <v>0.615</v>
       </c>
       <c r="H459" t="n">
-        <v>0.695</v>
+        <v>0.63</v>
       </c>
       <c r="I459" t="n">
-        <v>9604000</v>
+        <v>1028300</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16465,28 +16465,28 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="F460" t="n">
-        <v>0.725</v>
+        <v>0.64</v>
       </c>
       <c r="G460" t="n">
-        <v>0.67</v>
+        <v>0.625</v>
       </c>
       <c r="H460" t="n">
-        <v>0.72</v>
+        <v>0.625</v>
       </c>
       <c r="I460" t="n">
-        <v>6247400</v>
+        <v>2354300</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16500,28 +16500,28 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>0.715</v>
+        <v>0.625</v>
       </c>
       <c r="F461" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="G461" t="n">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="H461" t="n">
-        <v>0.7</v>
+        <v>0.665</v>
       </c>
       <c r="I461" t="n">
-        <v>5148300</v>
+        <v>7790800</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16535,28 +16535,28 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>0.715</v>
+        <v>0.67</v>
       </c>
       <c r="F462" t="n">
-        <v>0.715</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="G462" t="n">
-        <v>0.68</v>
+        <v>0.665</v>
       </c>
       <c r="H462" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="I462" t="n">
-        <v>2792800</v>
+        <v>4304500</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16570,28 +16570,28 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>0.67</v>
+        <v>0.675</v>
       </c>
       <c r="F463" t="n">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="G463" t="n">
-        <v>0.6</v>
+        <v>0.675</v>
       </c>
       <c r="H463" t="n">
-        <v>0.635</v>
+        <v>0.735</v>
       </c>
       <c r="I463" t="n">
-        <v>12010100</v>
+        <v>13904800</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16605,28 +16605,28 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>0.62</v>
+        <v>0.74</v>
       </c>
       <c r="F464" t="n">
-        <v>0.68</v>
+        <v>0.745</v>
       </c>
       <c r="G464" t="n">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
       <c r="H464" t="n">
-        <v>0.68</v>
+        <v>0.715</v>
       </c>
       <c r="I464" t="n">
-        <v>9345100</v>
+        <v>3892600</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16640,28 +16640,28 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="F465" t="n">
-        <v>0.715</v>
+        <v>0.78</v>
       </c>
       <c r="G465" t="n">
-        <v>0.665</v>
+        <v>0.71</v>
       </c>
       <c r="H465" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.775</v>
       </c>
       <c r="I465" t="n">
-        <v>6543300</v>
+        <v>11275300</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16675,28 +16675,28 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>0.67</v>
+        <v>0.775</v>
       </c>
       <c r="F466" t="n">
-        <v>0.71</v>
+        <v>0.795</v>
       </c>
       <c r="G466" t="n">
-        <v>0.665</v>
+        <v>0.755</v>
       </c>
       <c r="H466" t="n">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="I466" t="n">
-        <v>6774900</v>
+        <v>5931400</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -16710,28 +16710,28 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>0.715</v>
+        <v>0.77</v>
       </c>
       <c r="F467" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G467" t="n">
         <v>0.745</v>
       </c>
-      <c r="G467" t="n">
-        <v>0.705</v>
-      </c>
       <c r="H467" t="n">
-        <v>0.725</v>
+        <v>0.75</v>
       </c>
       <c r="I467" t="n">
-        <v>8231500</v>
+        <v>4947500</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16745,28 +16745,28 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>0.72</v>
+        <v>0.705</v>
       </c>
       <c r="F468" t="n">
-        <v>0.745</v>
+        <v>0.74</v>
       </c>
       <c r="G468" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="H468" t="n">
-        <v>0.72</v>
+        <v>0.695</v>
       </c>
       <c r="I468" t="n">
-        <v>5577800</v>
+        <v>9604000</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16780,28 +16780,28 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>0.695</v>
+        <v>0.68</v>
       </c>
       <c r="F469" t="n">
-        <v>0.7</v>
+        <v>0.725</v>
       </c>
       <c r="G469" t="n">
-        <v>0.585</v>
+        <v>0.67</v>
       </c>
       <c r="H469" t="n">
-        <v>0.595</v>
+        <v>0.72</v>
       </c>
       <c r="I469" t="n">
-        <v>12723000</v>
+        <v>6247400</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16815,28 +16815,28 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>0.58</v>
+        <v>0.715</v>
       </c>
       <c r="F470" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="G470" t="n">
-        <v>0.575</v>
+        <v>0.7</v>
       </c>
       <c r="H470" t="n">
-        <v>0.665</v>
+        <v>0.7</v>
       </c>
       <c r="I470" t="n">
-        <v>14201400</v>
+        <v>5148300</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16850,28 +16850,28 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>0.665</v>
+        <v>0.715</v>
       </c>
       <c r="F471" t="n">
-        <v>0.7</v>
+        <v>0.715</v>
       </c>
       <c r="G471" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="H471" t="n">
         <v>0.68</v>
       </c>
       <c r="I471" t="n">
-        <v>11787300</v>
+        <v>2792800</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16885,53 +16885,368 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="F472" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="G472" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="H472" t="n">
-        <v>0.64</v>
+        <v>0.635</v>
       </c>
       <c r="I472" t="n">
-        <v>4823100</v>
+        <v>12010100</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E473" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F473" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G473" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I473" t="n">
+        <v>9345100</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G474" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I474" t="n">
+        <v>6543300</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E475" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F475" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G475" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I475" t="n">
+        <v>6774900</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E476" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F476" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I476" t="n">
+        <v>8231500</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E477" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F477" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I477" t="n">
+        <v>5577800</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E478" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G478" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I478" t="n">
+        <v>12723000</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E479" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I479" t="n">
+        <v>14201400</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E480" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F480" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G480" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I480" t="n">
+        <v>11787300</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E481" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F481" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I481" t="n">
+        <v>4823100</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B473" t="inlineStr">
+      <c r="B482" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C473" t="inlineStr">
-        <is>
-          <t>0198</t>
-        </is>
-      </c>
-      <c r="D473" t="inlineStr">
-        <is>
-          <t>GDB</t>
-        </is>
-      </c>
-      <c r="E473" t="n">
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E482" t="n">
         <v>0.58</v>
       </c>
-      <c r="F473" t="n">
+      <c r="F482" t="n">
         <v>0.62</v>
       </c>
-      <c r="G473" t="n">
+      <c r="G482" t="n">
         <v>0.53</v>
       </c>
-      <c r="H473" t="n">
+      <c r="H482" t="n">
         <v>0.58</v>
       </c>
-      <c r="I473" t="n">
+      <c r="I482" t="n">
         <v>20224600</v>
       </c>
     </row>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I482"/>
+  <dimension ref="A1:I483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17250,6 +17250,41 @@
         <v>20224600</v>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E483" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F483" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G483" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I483" t="n">
+        <v>12677700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I483"/>
+  <dimension ref="A1:I484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17285,6 +17285,41 @@
         <v>12677700</v>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E484" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G484" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I484" t="n">
+        <v>19067900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I484"/>
+  <dimension ref="A1:I485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17320,6 +17320,41 @@
         <v>19067900</v>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E485" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F485" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I485" t="n">
+        <v>7053100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I485"/>
+  <dimension ref="A1:I486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17355,6 +17355,41 @@
         <v>7053100</v>
       </c>
     </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E486" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F486" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I486" t="n">
+        <v>6440800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I486"/>
+  <dimension ref="A1:I487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17390,6 +17390,41 @@
         <v>6440800</v>
       </c>
     </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E487" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F487" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I487" t="n">
+        <v>12487400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I487"/>
+  <dimension ref="A1:I488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17425,6 +17425,41 @@
         <v>12487400</v>
       </c>
     </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E488" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I488" t="n">
+        <v>6146300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I488"/>
+  <dimension ref="A1:I489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17460,6 +17460,41 @@
         <v>6146300</v>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E489" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F489" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I489" t="n">
+        <v>7064000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I489"/>
+  <dimension ref="A1:I490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17495,6 +17495,41 @@
         <v>7064000</v>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E490" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F490" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H490" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I490" t="n">
+        <v>9284500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I490"/>
+  <dimension ref="A1:I491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17530,6 +17530,41 @@
         <v>9284500</v>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E491" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F491" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G491" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H491" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I491" t="n">
+        <v>3909800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I491"/>
+  <dimension ref="A1:I492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17565,6 +17565,41 @@
         <v>3909800</v>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E492" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F492" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G492" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H492" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I492" t="n">
+        <v>9698300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I492"/>
+  <dimension ref="A1:I493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17600,6 +17600,41 @@
         <v>9698300</v>
       </c>
     </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E493" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F493" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G493" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H493" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I493" t="n">
+        <v>3432300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I493"/>
+  <dimension ref="A1:I494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17635,6 +17635,41 @@
         <v>3432300</v>
       </c>
     </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E494" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F494" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G494" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H494" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I494" t="n">
+        <v>4527700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I494"/>
+  <dimension ref="A1:I495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17670,6 +17670,41 @@
         <v>4527700</v>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E495" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F495" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G495" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H495" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I495" t="n">
+        <v>13550200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I495"/>
+  <dimension ref="A1:I496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17705,6 +17705,41 @@
         <v>13550200</v>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E496" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F496" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G496" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H496" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I496" t="n">
+        <v>4410500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I496"/>
+  <dimension ref="A1:I497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17740,6 +17740,41 @@
         <v>4410500</v>
       </c>
     </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E497" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F497" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G497" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H497" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I497" t="n">
+        <v>1842500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I497"/>
+  <dimension ref="A1:I498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17775,6 +17775,41 @@
         <v>1842500</v>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E498" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F498" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G498" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I498" t="n">
+        <v>6646300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I498"/>
+  <dimension ref="A1:I499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17810,6 +17810,41 @@
         <v>6646300</v>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E499" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F499" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I499" t="n">
+        <v>9584100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I499"/>
+  <dimension ref="A1:I500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17845,6 +17845,41 @@
         <v>9584100</v>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E500" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F500" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G500" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I500" t="n">
+        <v>9335800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I500"/>
+  <dimension ref="A1:I501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17880,6 +17880,41 @@
         <v>9335800</v>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E501" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F501" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G501" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I501" t="n">
+        <v>3506700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I501"/>
+  <dimension ref="A1:I502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17915,6 +17915,41 @@
         <v>3506700</v>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E502" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F502" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I502" t="n">
+        <v>2787000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I502"/>
+  <dimension ref="A1:I503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17950,6 +17950,41 @@
         <v>2787000</v>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E503" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F503" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I503" t="n">
+        <v>2491800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I503"/>
+  <dimension ref="A1:I504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17985,6 +17985,41 @@
         <v>2491800</v>
       </c>
     </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E504" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F504" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I504" t="n">
+        <v>2232800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I504"/>
+  <dimension ref="A1:I505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18020,6 +18020,41 @@
         <v>2232800</v>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E505" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G505" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I505" t="n">
+        <v>5878800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I505"/>
+  <dimension ref="A1:I506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18055,6 +18055,41 @@
         <v>5878800</v>
       </c>
     </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E506" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F506" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I506" t="n">
+        <v>1954300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I506"/>
+  <dimension ref="A1:I507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18090,6 +18090,41 @@
         <v>1954300</v>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E507" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F507" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G507" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I507" t="n">
+        <v>6673200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I507"/>
+  <dimension ref="A1:I509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18125,6 +18125,76 @@
         <v>6673200</v>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E508" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G508" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I508" t="n">
+        <v>9321100</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E509" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F509" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G509" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H509" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I509" t="n">
+        <v>6672600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I509"/>
+  <dimension ref="A1:I510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18195,6 +18195,41 @@
         <v>6672600</v>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E510" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G510" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I510" t="n">
+        <v>9489300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I510"/>
+  <dimension ref="A1:I513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18230,6 +18230,111 @@
         <v>9489300</v>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E511" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F511" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G511" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I511" t="n">
+        <v>11775500</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E512" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F512" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G512" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I512" t="n">
+        <v>3892400</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E513" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F513" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G513" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I513" t="n">
+        <v>3042600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I513"/>
+  <dimension ref="A1:I514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18335,6 +18335,41 @@
         <v>3042600</v>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E514" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F514" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G514" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I514" t="n">
+        <v>3075700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I514"/>
+  <dimension ref="A1:I515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18370,6 +18370,41 @@
         <v>3075700</v>
       </c>
     </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E515" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F515" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I515" t="n">
+        <v>7453200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0198.xlsx
+++ b/data/0198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I515"/>
+  <dimension ref="A1:I518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18405,6 +18405,111 @@
         <v>7453200</v>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E516" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F516" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G516" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I516" t="n">
+        <v>6146600</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E517" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F517" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G517" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I517" t="n">
+        <v>6647600</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="E518" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F518" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G518" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I518" t="n">
+        <v>3209200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
